--- a/Data/g3.5c.xlsx
+++ b/Data/g3.5c.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.5c Aumento(2010-2025)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.5c Aumento(2010-2023)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-12.9991335302899</v>
+        <v>135.911515695629</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -466,11 +466,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-52.43779365097164</v>
+        <v>51.71609713993448</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -479,11 +479,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rondônia</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-55.47088919131882</v>
+        <v>45.7040124133387</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -492,11 +492,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-57.40422433597867</v>
+        <v>38.24931410435322</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57.8038862507505</v>
+        <v>36.70245128515432</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-59.15771528925063</v>
+        <v>35.50290489692467</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-66.29176522584547</v>
+        <v>16.47549473420316</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-72.7415079815211</v>
+        <v>-8.811494134209596</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>

--- a/Data/g3.5c.xlsx
+++ b/Data/g3.5c.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.5c Aumento(2010-2023)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.5c Aumento" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Ordem</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +467,11 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +485,11 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +503,11 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +521,11 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +539,11 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +557,11 @@
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -538,6 +573,11 @@
         <v>16.47549473420316</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -549,6 +589,11 @@
         <v>-8.811494134209596</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2010-2023</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g3.5c.xlsx
+++ b/Data/g3.5c.xlsx
@@ -462,86 +462,86 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135.911515695629</v>
+        <v>218.506957856166</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rondônia</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.71609713993448</v>
+        <v>74.85336315016637</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.7040124133387</v>
+        <v>70.26486449264048</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.24931410435322</v>
+        <v>66.6664450214608</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.70245128515432</v>
+        <v>57.26336648061454</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -552,14 +552,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.50290489692467</v>
+        <v>53.87049714180498</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -570,12 +570,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.47549473420316</v>
+        <v>35.5593114920899</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.811494134209596</v>
+        <v>10.35890474466794</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2010-2023</t>
+          <t>2010-2024</t>
         </is>
       </c>
     </row>
